--- a/PerformanceAttribution/MatlabPA/Data/PortfolioData.xlsx
+++ b/PerformanceAttribution/MatlabPA/Data/PortfolioData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\exjobb\MSc-Financial-Mathematics-Multi-Curve-Modeling-Risk-Performance-Attribution\PerformanceAttribution\MatlabPA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0151715-18B6-461F-AA59-9ED0F9E4C460}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DCEFE0-8D99-438B-B8CF-A42A0C361B3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="17490" windowHeight="8100" firstSheet="5" activeTab="13" xr2:uid="{1F1B9D4F-890A-446C-86EA-5F556401DAED}"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="17490" windowHeight="8100" activeTab="3" xr2:uid="{1F1B9D4F-890A-446C-86EA-5F556401DAED}"/>
   </bookViews>
   <sheets>
     <sheet name="Float Cashflows EUR" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
   <si>
     <t>Fixing days:</t>
   </si>
@@ -144,6 +144,36 @@
   <si>
     <t>SEKAB3S9Y=</t>
   </si>
+  <si>
+    <t>1Y</t>
+  </si>
+  <si>
+    <t>2Y</t>
+  </si>
+  <si>
+    <t>3Y</t>
+  </si>
+  <si>
+    <t>4Y</t>
+  </si>
+  <si>
+    <t>5Y</t>
+  </si>
+  <si>
+    <t>6Y</t>
+  </si>
+  <si>
+    <t>7Y</t>
+  </si>
+  <si>
+    <t>8Y</t>
+  </si>
+  <si>
+    <t>9Y</t>
+  </si>
+  <si>
+    <t>10Y</t>
+  </si>
 </sst>
 </file>
 
@@ -227,227 +257,225 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:20</v>
         <stp/>
-        <stp>{A77D8C63-BFBF-494E-856F-6F8CC22E5A07}_x0000_</stp>
+        <stp>{DC315DF2-F8CA-4B34-B443-11FE7C739A73}_x0000_</stp>
+        <tr r="C17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:20</v>
+        <stp/>
+        <stp>{E6E4DC10-439E-4011-8007-E1B368971514}_x0000_</stp>
+        <tr r="P20" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{60FC908D-2EB4-4ADE-8BE2-52FC30FA9199}_x0000_</stp>
+        <tr r="V9" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{BD57B03C-A81E-4DA2-91EF-A49DEE09708D}_x0000_</stp>
+        <tr r="D17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{74CA0E8D-76EC-4150-ADF9-4C671756C281}_x0000_</stp>
+        <tr r="R20" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{B0C3F3B5-B3AA-4BC1-9057-A3605CE89C79}_x0000_</stp>
+        <tr r="B20" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{E46AE9D2-78CC-4491-9287-66406FAD8B9E}_x0000_</stp>
+        <tr r="M17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{502BD0C4-10DB-4368-8995-CB76D14645D5}_x0000_</stp>
+        <tr r="I17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{3A6762D9-7FC5-4A21-B58C-478C635146C0}_x0000_</stp>
+        <tr r="I20" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:20</v>
+        <stp/>
+        <stp>{9FD750C9-8B9F-45E3-9903-B98B180F40B0}_x0000_</stp>
+        <tr r="Q20" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{3615F522-8F02-4A22-8B7D-7C3A0C0D063D}_x0000_</stp>
+        <tr r="H17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{FE8E34F1-C24F-4931-B97D-BC652986F471}_x0000_</stp>
+        <tr r="Q17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{D6B9D6C3-5B25-4DAB-BBA9-BABBF85A67A4}_x0000_</stp>
+        <tr r="P17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{DAD0A679-B1A9-4B3E-BD0F-D3CB1B81DED1}_x0000_</stp>
+        <tr r="N17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:20</v>
+        <stp/>
+        <stp>{F80EC87B-A328-40B8-AC8E-D1708F22FE61}_x0000_</stp>
+        <tr r="K20" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{384DD0AB-67EA-4DD1-A286-AD74F7334F67}_x0000_</stp>
+        <tr r="L17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{7EF5DE09-C2B3-4CD5-83B9-E64DD93AE8EA}_x0000_</stp>
+        <tr r="E20" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{33F99637-D233-4777-93D2-FAB23506E4CF}_x0000_</stp>
+        <tr r="K17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{D364E72E-3815-476B-A584-39A6391A4420}_x0000_</stp>
+        <tr r="O20" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{B6774574-20FB-4862-8824-C03196810925}_x0000_</stp>
+        <tr r="A20" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{54DA58E9-3990-414C-B8CD-DB7177A5CE1F}_x0000_</stp>
+        <tr r="G17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{7A8CFB07-6BD6-43EB-BA6B-983CA8C17ACC}_x0000_</stp>
+        <tr r="E17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{B4BDBD50-8623-44BF-AEC2-7D3CE7FF306E}_x0000_</stp>
+        <tr r="J17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{1CBEB599-AEAB-41A9-863E-B6D7618EB115}_x0000_</stp>
+        <tr r="F20" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{CCAF5C1C-764B-4692-9DD3-5AEDFF794090}_x0000_</stp>
+        <tr r="R17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{E8F632B3-F354-4EA1-8D63-04AEFC9C9CA8}_x0000_</stp>
         <tr r="B17" s="12"/>
       </tp>
       <tp t="s">
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
         <stp/>
-        <stp>{3CE3BADF-C15C-4D3C-A9D1-90EDFD0256F6}_x0000_</stp>
-        <tr r="Q17" s="12"/>
+        <stp>{F84DFE6C-BA52-44C7-A501-F7A36D58C5A1}_x0000_</stp>
+        <tr r="J20" s="13"/>
       </tp>
       <tp t="s">
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
         <stp/>
-        <stp>{B2D5D8E2-4820-4A93-9602-977B5813FF59}_x0000_</stp>
-        <tr r="P17" s="12"/>
+        <stp>{4B98D04F-0321-4118-A674-E1A1AE36174F}_x0000_</stp>
+        <tr r="L20" s="13"/>
       </tp>
       <tp t="s">
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:21</v>
         <stp/>
-        <stp>{3A66D8BA-B8C3-4F0A-B04A-5743A723CED5}_x0000_</stp>
+        <stp>{E1F5CDF4-308E-4A59-B588-A646707B9393}_x0000_</stp>
+        <tr r="A17" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{0429BBF1-E8F4-4836-A4A3-D3F6A479EF3E}_x0000_</stp>
+        <tr r="G20" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:47:21</v>
+        <stp/>
+        <stp>{BA92CBE4-57B9-4650-9235-2756897076D0}_x0000_</stp>
         <tr r="D20" s="13"/>
       </tp>
       <tp t="s">
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
         <stp/>
-        <stp>{DC9C8138-6AB2-4E0B-B65A-A7A9622EF15F}_x0000_</stp>
-        <tr r="H17" s="12"/>
+        <stp>{B9BA821F-B366-4F72-9DA2-185FFF252B3D}_x0000_</stp>
+        <tr r="H20" s="13"/>
       </tp>
       <tp t="s">
-        <v>Updated at 23:06:34</v>
+        <v>Updated at 15:47:21</v>
         <stp/>
-        <stp>{62766EE0-1589-4BE6-9062-0AEE06449A60}_x0000_</stp>
-        <tr r="M17" s="12"/>
+        <stp>{8F140945-98CE-418F-842D-CBD6B2CFE3FB}_x0000_</stp>
+        <tr r="C20" s="13"/>
       </tp>
       <tp t="s">
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:21</v>
         <stp/>
-        <stp>{FE608ACE-12AB-4CAB-8F33-8C2C988930D1}_x0000_</stp>
-        <tr r="L20" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:06:35</v>
-        <stp/>
-        <stp>{C34B4A89-D773-4A73-967D-F9BC95458B7E}_x0000_</stp>
+        <stp>{0C1D0E65-ECAF-4001-9EF7-B2B06A61D1AA}_x0000_</stp>
         <tr r="O17" s="12"/>
       </tp>
       <tp t="s">
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:21</v>
         <stp/>
-        <stp>{44035BFA-E0BE-42C7-AB6B-0040F50185BD}_x0000_</stp>
-        <tr r="O20" s="13"/>
+        <stp>{A17A325D-7706-4267-B8FB-D608ED829D87}_x0000_</stp>
+        <tr r="M20" s="13"/>
       </tp>
       <tp t="s">
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
         <stp/>
-        <stp>{13D27A4B-9101-4534-BCD9-1C8128367691}_x0000_</stp>
-        <tr r="J17" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:09:31</v>
-        <stp/>
-        <stp>{917DC6B5-40A2-4428-B111-3B88AFDDE487}_x0000_</stp>
-        <tr r="B20" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:09:35</v>
-        <stp/>
-        <stp>{221E0346-B0F8-4315-A569-AC16C20DD3F8}_x0000_</stp>
-        <tr r="H20" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:09:35</v>
-        <stp/>
-        <stp>{812A1530-EA63-48EA-A22C-C24165668846}_x0000_</stp>
-        <tr r="I20" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:09:34</v>
-        <stp/>
-        <stp>{987C70D9-DC0F-433F-A71E-EFA788D6D5A1}_x0000_</stp>
-        <tr r="R20" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:00:04</v>
-        <stp/>
-        <stp>{A42D7A6E-ACB8-424F-BE33-DDFD83CE09F9}_x0000_</stp>
-        <tr r="A20" s="3"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:09:25</v>
-        <stp/>
-        <stp>{380C3642-7257-4D63-9332-E4B5D71676B0}_x0000_</stp>
-        <tr r="A20" s="13"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rhistoryrtdserver">
-      <tp t="s">
-        <v>Updated at 23:09:34</v>
-        <stp/>
-        <stp>{1B30C5FA-F3EC-4331-BF94-72A59FA5AFE0}_x0000_</stp>
+        <stp>{DCC5BBC4-3A3D-4ABD-885B-862F9C2D0542}_x0000_</stp>
         <tr r="N20" s="13"/>
       </tp>
       <tp t="s">
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:21</v>
         <stp/>
-        <stp>{F2AF3EBE-0BD1-451A-A127-B384C204D68F}_x0000_</stp>
-        <tr r="K20" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:09:34</v>
-        <stp/>
-        <stp>{7AA1A5A3-239C-4831-A4FF-919ACF7745BB}_x0000_</stp>
-        <tr r="J20" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:09:34</v>
-        <stp/>
-        <stp>{4C382A41-AC0D-4D45-9797-CF2EEC138ABD}_x0000_</stp>
-        <tr r="P20" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:09:34</v>
-        <stp/>
-        <stp>{6066CC45-DBF6-4808-9455-A286A9D38517}_x0000_</stp>
-        <tr r="M20" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:06:35</v>
-        <stp/>
-        <stp>{E4704047-409B-475F-9E69-2493FCB0D9AE}_x0000_</stp>
-        <tr r="E17" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:06:35</v>
-        <stp/>
-        <stp>{BDA199B9-D10D-4C6B-BAEA-9210B04A7B89}_x0000_</stp>
-        <tr r="C17" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:06:29</v>
-        <stp/>
-        <stp>{99637113-DE38-4F17-B937-8391DA2D7482}_x0000_</stp>
-        <tr r="A17" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:06:35</v>
-        <stp/>
-        <stp>{A6351143-8E43-4990-9721-770C6D15DAC4}_x0000_</stp>
-        <tr r="K17" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:06:35</v>
-        <stp/>
-        <stp>{5EF778C6-C3D8-4C5A-B18A-C982BD462A33}_x0000_</stp>
-        <tr r="N17" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:09:34</v>
-        <stp/>
-        <stp>{B5FAEE88-4BA8-41E4-ABA9-C871D5E96A03}_x0000_</stp>
-        <tr r="F20" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:06:35</v>
-        <stp/>
-        <stp>{AF6417CA-8833-420E-A718-156F85D48255}_x0000_</stp>
-        <tr r="I17" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:06:35</v>
-        <stp/>
-        <stp>{BAF4F49C-6D2A-4C28-93F4-03D850131A1F}_x0000_</stp>
-        <tr r="D17" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:09:34</v>
-        <stp/>
-        <stp>{E1382CE7-5E74-4BA9-924E-6D83328308F1}_x0000_</stp>
-        <tr r="E20" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:09:34</v>
-        <stp/>
-        <stp>{83354420-46B4-467D-9AD7-56DEC810471A}_x0000_</stp>
-        <tr r="G20" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:06:35</v>
-        <stp/>
-        <stp>{7472F4B0-871C-47E5-8269-A907C93AA4C6}_x0000_</stp>
-        <tr r="L17" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:06:35</v>
-        <stp/>
-        <stp>{691EAEB3-1B5B-471D-BDCB-BE85B0B965AE}_x0000_</stp>
-        <tr r="G17" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:09:33</v>
-        <stp/>
-        <stp>{A793DA01-6AC3-4297-9A5A-2248E0A98C74}_x0000_</stp>
-        <tr r="C20" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:06:35</v>
-        <stp/>
-        <stp>{4B4F12E0-9F27-41FE-8569-4DD25144B7B4}_x0000_</stp>
-        <tr r="R17" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:09:34</v>
-        <stp/>
-        <stp>{31A72CE5-E7DF-4B20-81A4-2CC6EA86E5DB}_x0000_</stp>
-        <tr r="Q20" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 23:06:35</v>
-        <stp/>
-        <stp>{43AD404B-4FA8-4509-B62F-D7671D1955BE}_x0000_</stp>
+        <stp>{C2244AA5-C722-4AAF-821A-7DA2DC2D097F}_x0000_</stp>
         <tr r="F17" s="12"/>
       </tp>
     </main>
@@ -753,76 +781,130 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313A3718-4E76-4F7F-84FE-97A07B0F4F4B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:R35"/>
+      <selection activeCell="A2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="37" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1">
+    <row r="1" spans="1:37">
+      <c r="A1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="B1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="C1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="D1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="E1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="F1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="G1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="H1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="I1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="J1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="K1" s="1">
+        <v>41276</v>
+      </c>
+      <c r="L1" s="1">
+        <v>41641</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42004</v>
+      </c>
+      <c r="N1" s="1">
+        <v>42368</v>
+      </c>
+      <c r="O1" s="1">
+        <v>42737</v>
+      </c>
+      <c r="P1" s="1">
+        <v>43102</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>43467</v>
+      </c>
+      <c r="R1" s="1">
+        <v>43832</v>
+      </c>
+      <c r="T1">
         <v>2</v>
       </c>
-      <c r="B1">
+      <c r="U1">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="V1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="W1">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="X1">
         <v>2</v>
       </c>
-      <c r="F1">
+      <c r="Y1">
         <v>2</v>
       </c>
-      <c r="G1">
+      <c r="Z1">
         <v>2</v>
       </c>
-      <c r="H1">
+      <c r="AA1">
         <v>2</v>
       </c>
-      <c r="I1">
+      <c r="AB1">
         <v>2</v>
       </c>
-      <c r="J1">
+      <c r="AC1">
         <v>2</v>
       </c>
-      <c r="K1">
+      <c r="AD1">
         <v>2</v>
       </c>
-      <c r="L1">
+      <c r="AE1">
         <v>4</v>
       </c>
-      <c r="M1">
+      <c r="AF1">
         <v>5</v>
       </c>
-      <c r="N1">
+      <c r="AG1">
         <v>5</v>
       </c>
-      <c r="O1">
+      <c r="AH1">
         <v>2</v>
       </c>
-      <c r="P1">
+      <c r="AI1">
         <v>2</v>
       </c>
-      <c r="Q1">
+      <c r="AJ1">
         <v>2</v>
       </c>
-      <c r="R1">
+      <c r="AK1">
         <v>4</v>
       </c>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2">
         <v>184</v>
       </c>
@@ -877,10 +959,11 @@
       <c r="R2">
         <v>186</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="T2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3">
         <v>368</v>
       </c>
@@ -936,9 +1019,62 @@
         <v>370</v>
       </c>
       <c r="S3" s="1"/>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="T3" s="1">
+        <v>40910</v>
+      </c>
+      <c r="U3" s="1">
+        <v>40910</v>
+      </c>
+      <c r="V3" s="1">
+        <v>40910</v>
+      </c>
+      <c r="W3" s="1">
+        <v>40910</v>
+      </c>
+      <c r="X3" s="1">
+        <v>40910</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>40910</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>41276</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>41641</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>42004</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>42368</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>42737</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>43102</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>43467</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="B4">
         <v>549</v>
       </c>
@@ -993,7 +1129,7 @@
       <c r="S4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:37">
       <c r="B5">
         <v>735</v>
       </c>
@@ -1048,7 +1184,7 @@
       <c r="S5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:37">
       <c r="C6">
         <v>914</v>
       </c>
@@ -1100,7 +1236,7 @@
       <c r="S6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:37">
       <c r="C7">
         <v>1099</v>
       </c>
@@ -1152,7 +1288,7 @@
       <c r="S7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:37">
       <c r="D8">
         <v>1281</v>
       </c>
@@ -1201,7 +1337,7 @@
       <c r="S8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:37">
       <c r="D9">
         <v>1463</v>
       </c>
@@ -1250,7 +1386,7 @@
       <c r="S9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:37">
       <c r="E10">
         <v>1645</v>
       </c>
@@ -1296,7 +1432,7 @@
       <c r="S10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:37">
       <c r="E11">
         <v>1829</v>
       </c>
@@ -1342,7 +1478,7 @@
       <c r="S11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:37">
       <c r="F12">
         <v>2010</v>
       </c>
@@ -1385,7 +1521,7 @@
       <c r="S12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:37">
       <c r="F13">
         <v>2194</v>
       </c>
@@ -1428,7 +1564,7 @@
       <c r="S13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:37">
       <c r="G14">
         <v>2375</v>
       </c>
@@ -1468,7 +1604,7 @@
       <c r="S14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:37">
       <c r="G15">
         <v>2559</v>
       </c>
@@ -1508,7 +1644,7 @@
       <c r="S15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:37">
       <c r="H16">
         <v>2740</v>
       </c>
@@ -1545,7 +1681,7 @@
       <c r="S16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="8:23">
       <c r="H17">
         <v>2926</v>
       </c>
@@ -1582,7 +1718,7 @@
       <c r="S17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="8:23">
       <c r="I18">
         <v>3108</v>
       </c>
@@ -1616,7 +1752,7 @@
       <c r="S18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="8:23">
       <c r="I19">
         <v>3290</v>
       </c>
@@ -1650,7 +1786,7 @@
       <c r="S19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="8:23">
       <c r="J20">
         <v>3472</v>
       </c>
@@ -1681,7 +1817,7 @@
       <c r="S20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="8:23">
       <c r="J21">
         <v>3655</v>
       </c>
@@ -1712,95 +1848,40 @@
       <c r="S21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="1">
-        <v>40910</v>
-      </c>
-      <c r="B23" s="1">
-        <v>40910</v>
-      </c>
-      <c r="C23" s="1">
-        <v>40910</v>
-      </c>
-      <c r="D23" s="1">
-        <v>40910</v>
-      </c>
-      <c r="E23" s="1">
-        <v>40910</v>
-      </c>
-      <c r="F23" s="1">
-        <v>40910</v>
-      </c>
-      <c r="G23" s="1">
-        <v>40910</v>
-      </c>
-      <c r="H23" s="1">
-        <v>40910</v>
-      </c>
-      <c r="I23" s="1">
-        <v>40910</v>
-      </c>
-      <c r="J23" s="1">
-        <v>40910</v>
-      </c>
-      <c r="K23" s="1">
-        <v>41276</v>
-      </c>
-      <c r="L23" s="1">
-        <v>41641</v>
-      </c>
-      <c r="M23" s="1">
-        <v>42004</v>
-      </c>
-      <c r="N23" s="1">
-        <v>42368</v>
-      </c>
-      <c r="O23" s="1">
-        <v>42737</v>
-      </c>
-      <c r="P23" s="1">
-        <v>43102</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>43467</v>
-      </c>
-      <c r="R23" s="1">
-        <v>43832</v>
-      </c>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="1:23">
+    <row r="22" spans="8:23">
+      <c r="S22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="24" spans="8:23">
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23">
-      <c r="V25" s="1"/>
+    <row r="25" spans="8:23">
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="8:23">
+      <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="8:23">
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="8:23">
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="8:23">
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="8:23">
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="8:23">
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="8:23">
       <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="23:23">
+      <c r="W33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1811,58 +1892,105 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF745BCE-DA87-42D2-84A7-BC12422D55BC}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
         <v>1000</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>1000</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>1000</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>1000</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>1000</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>1000</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>1000</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>1000</v>
       </c>
-      <c r="I1">
+      <c r="I2">
         <v>1000</v>
       </c>
-      <c r="J1">
+      <c r="J2">
         <v>1000</v>
       </c>
-      <c r="K1">
+      <c r="K2">
         <v>1000</v>
       </c>
-      <c r="L1">
+      <c r="L2">
         <v>1000</v>
       </c>
-      <c r="M1">
+      <c r="M2">
         <v>1000</v>
       </c>
-      <c r="N1">
+      <c r="N2">
         <v>1000</v>
       </c>
-      <c r="O1">
+      <c r="O2">
         <v>1000</v>
       </c>
     </row>
@@ -1877,7 +2005,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1919,7 +2047,9 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -1932,8 +2062,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1945,20 +2075,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659D0EB1-BF4C-4AB6-B0DE-9290084490E4}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:AL62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y44" sqref="V1:Y44"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="38" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:38">
       <c r="A1">
         <v>2</v>
       </c>
@@ -2013,10 +2144,11 @@
       <c r="R1">
         <v>4</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="U1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2">
         <v>93</v>
       </c>
@@ -2071,9 +2203,62 @@
       <c r="R2">
         <v>95</v>
       </c>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="U2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="V2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="W2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="X2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>41276</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>41641</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>42004</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>42368</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>42734</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>43102</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>43467</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3">
         <v>185</v>
       </c>
@@ -2130,7 +2315,7 @@
       </c>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:38">
       <c r="A4">
         <v>276</v>
       </c>
@@ -2187,7 +2372,7 @@
       </c>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:38">
       <c r="A5">
         <v>368</v>
       </c>
@@ -2244,7 +2429,7 @@
       </c>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:38">
       <c r="B6">
         <v>458</v>
       </c>
@@ -2298,7 +2483,7 @@
       </c>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:38">
       <c r="B7">
         <v>550</v>
       </c>
@@ -2352,7 +2537,7 @@
       </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:38">
       <c r="B8">
         <v>641</v>
       </c>
@@ -2406,7 +2591,7 @@
       </c>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:38">
       <c r="B9">
         <v>735</v>
       </c>
@@ -2460,7 +2645,7 @@
       </c>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:38">
       <c r="C10">
         <v>823</v>
       </c>
@@ -2511,7 +2696,7 @@
       </c>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:38">
       <c r="C11">
         <v>917</v>
       </c>
@@ -2562,7 +2747,7 @@
       </c>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:38">
       <c r="C12">
         <v>1008</v>
       </c>
@@ -2613,7 +2798,7 @@
       </c>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:38">
       <c r="C13">
         <v>1099</v>
       </c>
@@ -2664,7 +2849,7 @@
       </c>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:38">
       <c r="D14">
         <v>1190</v>
       </c>
@@ -2712,7 +2897,7 @@
       </c>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:38">
       <c r="D15">
         <v>1281</v>
       </c>
@@ -2760,7 +2945,7 @@
       </c>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:38">
       <c r="D16">
         <v>1372</v>
       </c>
@@ -3468,7 +3653,7 @@
       </c>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="8:23">
       <c r="H33">
         <v>2926</v>
       </c>
@@ -3504,7 +3689,7 @@
       </c>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="8:23">
       <c r="I34">
         <v>3017</v>
       </c>
@@ -3537,7 +3722,7 @@
       </c>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="8:23">
       <c r="I35">
         <v>3108</v>
       </c>
@@ -3570,7 +3755,7 @@
       </c>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="8:23">
       <c r="I36">
         <v>3199</v>
       </c>
@@ -3603,7 +3788,7 @@
       </c>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="8:23">
       <c r="I37">
         <v>3290</v>
       </c>
@@ -3636,7 +3821,7 @@
       </c>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="8:23">
       <c r="J38">
         <v>3381</v>
       </c>
@@ -3666,7 +3851,7 @@
       </c>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="8:23">
       <c r="J39">
         <v>3473</v>
       </c>
@@ -3696,7 +3881,7 @@
       </c>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="8:23">
       <c r="J40">
         <v>3563</v>
       </c>
@@ -3726,7 +3911,7 @@
       </c>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="8:23">
       <c r="J41">
         <v>3655</v>
       </c>
@@ -3755,67 +3940,6 @@
         <v>3658</v>
       </c>
       <c r="W41" s="1"/>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="A42" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
-      <c r="A43" s="1">
-        <v>40910</v>
-      </c>
-      <c r="B43" s="1">
-        <v>40910</v>
-      </c>
-      <c r="C43" s="1">
-        <v>40910</v>
-      </c>
-      <c r="D43" s="1">
-        <v>40910</v>
-      </c>
-      <c r="E43" s="1">
-        <v>40910</v>
-      </c>
-      <c r="F43" s="1">
-        <v>40910</v>
-      </c>
-      <c r="G43" s="1">
-        <v>40910</v>
-      </c>
-      <c r="H43" s="1">
-        <v>40910</v>
-      </c>
-      <c r="I43" s="1">
-        <v>40910</v>
-      </c>
-      <c r="J43" s="1">
-        <v>40910</v>
-      </c>
-      <c r="K43" s="1">
-        <v>41276</v>
-      </c>
-      <c r="L43" s="1">
-        <v>41641</v>
-      </c>
-      <c r="M43" s="1">
-        <v>42004</v>
-      </c>
-      <c r="N43" s="1">
-        <v>42368</v>
-      </c>
-      <c r="O43" s="1">
-        <v>42734</v>
-      </c>
-      <c r="P43" s="1">
-        <v>43102</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>43467</v>
-      </c>
-      <c r="R43" s="1">
-        <v>43832</v>
-      </c>
     </row>
     <row r="57" spans="17:17">
       <c r="Q57" s="1"/>
@@ -5747,75 +5871,80 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855F7D6-8F7D-4A14-A114-C3678A4E9044}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:R13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="37" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>2</v>
-      </c>
-      <c r="I1">
-        <v>2</v>
-      </c>
-      <c r="J1">
-        <v>2</v>
-      </c>
-      <c r="K1">
-        <v>2</v>
-      </c>
-      <c r="L1">
-        <v>4</v>
-      </c>
-      <c r="M1">
-        <v>5</v>
-      </c>
-      <c r="N1">
-        <v>5</v>
-      </c>
-      <c r="O1">
-        <v>2</v>
-      </c>
-      <c r="P1">
-        <v>2</v>
-      </c>
-      <c r="Q1">
-        <v>2</v>
-      </c>
-      <c r="R1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    <row r="1" spans="1:37">
+      <c r="A1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="B1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="C1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="D1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="E1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="F1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="G1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="H1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="I1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="J1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="K1" s="1">
+        <v>41276</v>
+      </c>
+      <c r="L1" s="1">
+        <v>41641</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42004</v>
+      </c>
+      <c r="N1" s="1">
+        <v>42368</v>
+      </c>
+      <c r="O1" s="1">
+        <v>42737</v>
+      </c>
+      <c r="P1" s="1">
+        <v>43102</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>43467</v>
+      </c>
+      <c r="R1" s="1">
+        <v>43832</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2">
         <v>368</v>
       </c>
@@ -5870,8 +5999,62 @@
       <c r="R2">
         <v>370</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="T2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="U2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="V2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="W2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="X2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>41276</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>41641</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>42004</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>42368</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>42737</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>43102</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>43467</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="B3">
         <v>735</v>
       </c>
@@ -5924,7 +6107,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:37">
       <c r="C4">
         <v>1099</v>
       </c>
@@ -5973,8 +6156,62 @@
       <c r="R4">
         <v>1100</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>4</v>
+      </c>
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AG4">
+        <v>5</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>2</v>
+      </c>
+      <c r="AJ4">
+        <v>2</v>
+      </c>
+      <c r="AK4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="D5">
         <v>1463</v>
       </c>
@@ -6021,7 +6258,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:37">
       <c r="E6">
         <v>1829</v>
       </c>
@@ -6065,7 +6302,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:37">
       <c r="F7">
         <v>2194</v>
       </c>
@@ -6106,7 +6343,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:37">
       <c r="G8">
         <v>2559</v>
       </c>
@@ -6144,7 +6381,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:37">
       <c r="H9">
         <v>2926</v>
       </c>
@@ -6179,7 +6416,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:37">
       <c r="I10">
         <v>3290</v>
       </c>
@@ -6211,7 +6448,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:37">
       <c r="J11">
         <v>3655</v>
       </c>
@@ -6238,67 +6475,6 @@
       </c>
       <c r="R11">
         <v>3658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="B13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="C13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="D13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="E13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="F13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="G13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="H13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="I13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="J13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="K13" s="1">
-        <v>41276</v>
-      </c>
-      <c r="L13" s="1">
-        <v>41641</v>
-      </c>
-      <c r="M13" s="1">
-        <v>42004</v>
-      </c>
-      <c r="N13" s="1">
-        <v>42368</v>
-      </c>
-      <c r="O13" s="1">
-        <v>42737</v>
-      </c>
-      <c r="P13" s="1">
-        <v>43102</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>43467</v>
-      </c>
-      <c r="R13" s="1">
-        <v>43832</v>
       </c>
     </row>
   </sheetData>
@@ -7433,268 +7609,326 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5557AC3C-8450-467F-8838-DD41DBEC7867}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="39" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1">
+    <row r="1" spans="1:39">
+      <c r="A1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="B1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="C1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="D1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="E1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="F1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="G1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="H1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="I1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="J1" s="1">
+        <v>40910</v>
+      </c>
+      <c r="K1" s="1">
+        <v>41276</v>
+      </c>
+      <c r="L1" s="1">
+        <v>41641</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42004</v>
+      </c>
+      <c r="N1" s="1">
+        <v>42368</v>
+      </c>
+      <c r="O1" s="1">
+        <v>42737</v>
+      </c>
+      <c r="P1" s="1">
+        <v>43102</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>43467</v>
+      </c>
+      <c r="R1" s="1">
+        <v>43832</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2">
         <v>1.41</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>1.3089999999999999</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>1.3819999999999999</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>1.575</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>1.776</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>1.9610000000000001</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>2.0990000000000002</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>2.2200000000000002</v>
       </c>
-      <c r="I1">
+      <c r="I2">
         <v>2.33</v>
       </c>
-      <c r="J1">
+      <c r="J2">
         <v>2.415</v>
       </c>
-      <c r="K1">
+      <c r="K2">
         <v>1.6505000000000001</v>
       </c>
-      <c r="L1">
+      <c r="L2">
         <v>2.1619999999999999</v>
       </c>
-      <c r="M1">
+      <c r="M2">
         <v>0.81699999999999995</v>
       </c>
-      <c r="N1">
+      <c r="N2">
         <v>0.99050000000000005</v>
       </c>
-      <c r="O1">
+      <c r="O2">
         <v>0.64</v>
       </c>
-      <c r="P1">
+      <c r="P2">
         <v>0.89</v>
       </c>
-      <c r="Q1">
+      <c r="Q2">
         <v>0.73</v>
       </c>
-      <c r="R1">
+      <c r="R2">
         <v>0.157</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="B13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="C13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="D13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="E13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="F13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="G13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="H13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="I13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="J13" s="1">
-        <v>40910</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="V2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="W2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="X2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>40910</v>
+      </c>
+      <c r="AF2" s="1">
         <v>41276</v>
       </c>
-      <c r="L13" s="1">
+      <c r="AG2" s="1">
         <v>41641</v>
       </c>
-      <c r="M13" s="1">
+      <c r="AH2" s="1">
         <v>42004</v>
       </c>
-      <c r="N13" s="1">
+      <c r="AI2" s="1">
         <v>42368</v>
       </c>
-      <c r="O13" s="1">
+      <c r="AJ2" s="1">
         <v>42737</v>
       </c>
-      <c r="P13" s="1">
+      <c r="AK2" s="1">
         <v>43102</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="AL2" s="1">
         <v>43467</v>
       </c>
-      <c r="R13" s="1">
+      <c r="AM2" s="1">
         <v>43832</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14">
+    <row r="3" spans="1:39">
+      <c r="V3">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="W3">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="X3">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="Y3">
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="Z3">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="AA3">
         <v>6</v>
       </c>
-      <c r="G14">
+      <c r="AB3">
         <v>7</v>
       </c>
-      <c r="H14">
+      <c r="AC3">
         <v>8</v>
       </c>
-      <c r="I14">
+      <c r="AD3">
         <v>9</v>
       </c>
-      <c r="J14">
+      <c r="AE3">
         <v>10</v>
       </c>
-      <c r="K14">
+      <c r="AF3">
         <v>10</v>
       </c>
-      <c r="L14">
+      <c r="AG3">
         <v>10</v>
       </c>
-      <c r="M14">
+      <c r="AH3">
         <v>10</v>
       </c>
-      <c r="N14">
+      <c r="AI3">
         <v>10</v>
       </c>
-      <c r="O14">
+      <c r="AJ3">
         <v>10</v>
       </c>
-      <c r="P14">
+      <c r="AK3">
         <v>10</v>
       </c>
-      <c r="Q14">
+      <c r="AL3">
         <v>10</v>
       </c>
-      <c r="R14">
+      <c r="AM3">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
+    <row r="4" spans="1:39">
+      <c r="V4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="W4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
+      <c r="X4" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="Y4" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
+      <c r="Z4" t="s">
         <v>7</v>
       </c>
-      <c r="F15" t="s">
+      <c r="AA4" t="s">
         <v>8</v>
       </c>
-      <c r="G15" t="s">
+      <c r="AB4" t="s">
         <v>9</v>
       </c>
-      <c r="H15" t="s">
+      <c r="AC4" t="s">
         <v>10</v>
       </c>
-      <c r="I15" t="s">
+      <c r="AD4" t="s">
         <v>11</v>
       </c>
-      <c r="J15" t="s">
+      <c r="AE4" t="s">
         <v>3</v>
       </c>
-      <c r="K15" t="s">
+      <c r="AF4" t="s">
         <v>3</v>
       </c>
-      <c r="L15" t="s">
+      <c r="AG4" t="s">
         <v>3</v>
       </c>
-      <c r="M15" t="s">
+      <c r="AH4" t="s">
         <v>3</v>
       </c>
-      <c r="N15" t="s">
+      <c r="AI4" t="s">
         <v>3</v>
       </c>
-      <c r="O15" t="s">
+      <c r="AJ4" t="s">
         <v>3</v>
       </c>
-      <c r="P15" t="s">
+      <c r="AK4" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="AL4" t="s">
         <v>3</v>
       </c>
-      <c r="R15" t="s">
+      <c r="AM4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="str">
-        <f>_xll.RHistory("EURAB6E10Y=",".Close;.Timestamp","START:"&amp;$R$13&amp;" END:"&amp;$R$13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",B21)</f>
-        <v>Updated at 23:00:04</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s">
+    <row r="9" spans="1:39">
+      <c r="V9" t="str">
+        <f>_xll.RHistory("EURAB6E10Y=",".Close;.Timestamp","START:"&amp;$AM$2&amp;" END:"&amp;$AM$2&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",W10)</f>
+        <v>Updated at 15:47:21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="W10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" t="s">
+      <c r="X10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22">
+    <row r="11" spans="1:39">
+      <c r="W11">
         <v>0.157</v>
       </c>
-      <c r="C22" s="1">
+      <c r="X11" s="1">
         <v>43832</v>
       </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7707,7 +7941,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7949,75 +8183,75 @@
     <row r="17" spans="1:19">
       <c r="A17" t="str">
         <f>_xll.RHistory(A15,".Close","START:"&amp;A13&amp;" END:"&amp;A13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",A21)</f>
-        <v>Updated at 23:06:29</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="B17" t="str">
         <f>_xll.RHistory(B15,".Close","START:"&amp;B13&amp;" END:"&amp;B13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",B21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="C17" t="str">
         <f>_xll.RHistory(C15,".Close","START:"&amp;C13&amp;" END:"&amp;C13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",C21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:20</v>
       </c>
       <c r="D17" t="str">
         <f>_xll.RHistory(D15,".Close","START:"&amp;D13&amp;" END:"&amp;D13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",D21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="E17" t="str">
         <f>_xll.RHistory(E15,".Close","START:"&amp;E13&amp;" END:"&amp;E13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",E21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="F17" t="str">
         <f>_xll.RHistory(F15,".Close","START:"&amp;F13&amp;" END:"&amp;F13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",F21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="G17" t="str">
         <f>_xll.RHistory(G15,".Close","START:"&amp;G13&amp;" END:"&amp;G13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",G21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="H17" t="str">
         <f>_xll.RHistory(H15,".Close","START:"&amp;H13&amp;" END:"&amp;H13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",H21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="I17" t="str">
         <f>_xll.RHistory(I15,".Close","START:"&amp;I13&amp;" END:"&amp;I13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",I21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="J17" t="str">
         <f>_xll.RHistory(J15,".Close","START:"&amp;J13&amp;" END:"&amp;J13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",J21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="K17" t="str">
         <f>_xll.RHistory(K15,".Close","START:"&amp;K13&amp;" END:"&amp;K13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",K21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="L17" t="str">
         <f>_xll.RHistory(L15,".Close","START:"&amp;L13&amp;" END:"&amp;L13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",L21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="M17" t="str">
         <f>_xll.RHistory(M15,".Close","START:"&amp;M13&amp;" END:"&amp;M13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",M21)</f>
-        <v>Updated at 23:06:34</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="N17" t="str">
         <f>_xll.RHistory(N15,".Close","START:"&amp;N13&amp;" END:"&amp;N13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",N21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="O17" t="str">
         <f>_xll.RHistory(O15,".Close","START:"&amp;O13&amp;" END:"&amp;O13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",O21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="P17" t="str">
         <f>_xll.RHistory(P15,".Close","START:"&amp;P13&amp;" END:"&amp;P13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",P21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="Q17" t="str">
         <f>_xll.RHistory(Q15,".Close","START:"&amp;Q13&amp;" END:"&amp;Q13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",Q21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="R17" t="str">
         <f>_xll.RHistory(R15,".Close","START:"&amp;R13&amp;" END:"&amp;R13&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",R21)</f>
-        <v>Updated at 23:06:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -8144,7 +8378,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8384,75 +8618,75 @@
     <row r="20" spans="1:18">
       <c r="A20" t="str">
         <f>_xll.RHistory(A17,".Close","START:"&amp;A15&amp;" END:"&amp;A15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",A21)</f>
-        <v>Updated at 23:09:25</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="B20" t="str">
         <f>_xll.RHistory(B17,".Close","START:"&amp;B15&amp;" END:"&amp;B15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",B21)</f>
-        <v>Updated at 23:09:31</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="C20" t="str">
         <f>_xll.RHistory(C17,".Close","START:"&amp;C15&amp;" END:"&amp;C15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",C21)</f>
-        <v>Updated at 23:09:33</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="D20" t="str">
         <f>_xll.RHistory(D17,".Close","START:"&amp;D15&amp;" END:"&amp;D15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",D21)</f>
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="E20" t="str">
         <f>_xll.RHistory(E17,".Close","START:"&amp;E15&amp;" END:"&amp;E15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",E21)</f>
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="F20" t="str">
         <f>_xll.RHistory(F17,".Close","START:"&amp;F15&amp;" END:"&amp;F15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",F21)</f>
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="G20" t="str">
         <f>_xll.RHistory(G17,".Close","START:"&amp;G15&amp;" END:"&amp;G15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",G21)</f>
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="H20" t="str">
         <f>_xll.RHistory(H17,".Close","START:"&amp;H15&amp;" END:"&amp;H15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",H21)</f>
-        <v>Updated at 23:09:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="I20" t="str">
         <f>_xll.RHistory(I17,".Close","START:"&amp;I15&amp;" END:"&amp;I15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",I21)</f>
-        <v>Updated at 23:09:35</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="J20" t="str">
         <f>_xll.RHistory(J17,".Close","START:"&amp;J15&amp;" END:"&amp;J15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",J21)</f>
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="K20" t="str">
         <f>_xll.RHistory(K17,".Close","START:"&amp;K15&amp;" END:"&amp;K15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",K21)</f>
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:20</v>
       </c>
       <c r="L20" t="str">
         <f>_xll.RHistory(L17,".Close","START:"&amp;L15&amp;" END:"&amp;L15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",L21)</f>
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="M20" t="str">
         <f>_xll.RHistory(M17,".Close","START:"&amp;M15&amp;" END:"&amp;M15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",M21)</f>
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="N20" t="str">
         <f>_xll.RHistory(N17,".Close","START:"&amp;N15&amp;" END:"&amp;N15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",N21)</f>
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="O20" t="str">
         <f>_xll.RHistory(O17,".Close","START:"&amp;O15&amp;" END:"&amp;O15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",O21)</f>
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:21</v>
       </c>
       <c r="P20" t="str">
         <f>_xll.RHistory(P17,".Close","START:"&amp;P15&amp;" END:"&amp;P15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",P21)</f>
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:20</v>
       </c>
       <c r="Q20" t="str">
         <f>_xll.RHistory(Q17,".Close","START:"&amp;Q15&amp;" END:"&amp;Q15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",Q21)</f>
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:20</v>
       </c>
       <c r="R20" t="str">
         <f>_xll.RHistory(R17,".Close","START:"&amp;R15&amp;" END:"&amp;R15&amp;" INTERVAL:1D CONVERTCODE:YES",,"TSREPEAT:NO CH:Fd",R21)</f>
-        <v>Updated at 23:09:34</v>
+        <v>Updated at 15:47:21</v>
       </c>
     </row>
     <row r="21" spans="1:18">
